--- a/data/case1/18/V2_1.xlsx
+++ b/data/case1/18/V2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999148348162</v>
+        <v>0.99999999674930673</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99425661856427894</v>
+        <v>0.99529084659952094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97028622691529842</v>
+        <v>0.97703005416764621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9584944586972115</v>
+        <v>0.96940941523854851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9470526088368203</v>
+        <v>0.96226740067553607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.92065979041435764</v>
+        <v>0.94579487921619143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.91493798599598208</v>
+        <v>0.9436545945215058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.90720427557991412</v>
+        <v>0.94176238716498273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.89781726875801171</v>
+        <v>0.94223174072759652</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.88698293319848642</v>
+        <v>0.94366912760787414</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.885386113553573</v>
+        <v>0.94404524933076872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.88260504812811591</v>
+        <v>0.94501838858826748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8713137529059547</v>
+        <v>0.95139050915880863</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.86714552737681572</v>
+        <v>0.94722376590399593</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.86455361766651517</v>
+        <v>0.94463256014466968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.86204681701495178</v>
+        <v>0.94212626981467718</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.85833860046186672</v>
+        <v>0.93841851386228403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.85722968335686578</v>
+        <v>0.93730959303692507</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99320344051177156</v>
+        <v>0.99423758376533677</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98608646023065805</v>
+        <v>0.98712036992428298</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98468798481984066</v>
+        <v>0.9857218524378959</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98342347718208312</v>
+        <v>0.98445734100626914</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96325045088933425</v>
+        <v>0.96999466300692783</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95022856715921256</v>
+        <v>0.95697319007612336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94377141048272817</v>
+        <v>0.95051608688771605</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.91805342971205883</v>
+        <v>0.94360185064136681</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.91466828498226871</v>
+        <v>0.94079360156133329</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90146166657425675</v>
+        <v>0.92977704586798238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89230757285572748</v>
+        <v>0.91450828186933997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88814839673302315</v>
+        <v>0.90793835458844407</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88869761939075631</v>
+        <v>0.90028476563883508</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.88701833097830252</v>
+        <v>0.898605407398543</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.88649832726495315</v>
+        <v>0.89808538369238056</v>
       </c>
     </row>
   </sheetData>
